--- a/inst/templates/genotype.xlsx
+++ b/inst/templates/genotype.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mctools-my.sharepoint.com/personal/lindsey_richard_mayo_edu/Documents/Lab/microCTr/inst/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="31" documentId="8_{7A772ADF-69BF-4A71-99C1-38E30A0CE021}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{42C7BF7F-C63A-4816-827E-2E1B3B77445E}"/>
+  <xr:revisionPtr revIDLastSave="34" documentId="8_{7A772ADF-69BF-4A71-99C1-38E30A0CE021}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{334EC115-14B4-4924-9C38-C349E2D83538}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{6894D22F-2E2C-44C1-B8A7-16983EAC7257}"/>
   </bookViews>
@@ -786,11 +786,13 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1217,7 +1219,8 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="9.140625" style="3"/>
+    <col min="21" max="21" width="9.140625" style="5"/>
+    <col min="22" max="22" width="10.5703125" style="3" bestFit="1" customWidth="1"/>
     <col min="24" max="27" width="9.140625" style="3"/>
   </cols>
   <sheetData>
@@ -1282,10 +1285,10 @@
       <c r="T1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="U1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="V1" s="2" t="s">
         <v>21</v>
       </c>
       <c r="W1" s="1" t="s">
